--- a/resources/experiment 1/metrics/MAPE/average time/Microalbuminuria.xlsx
+++ b/resources/experiment 1/metrics/MAPE/average time/Microalbuminuria.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1087152181300005</v>
+        <v>0.1087152181300004</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1087152181300005</v>
+        <v>0.1087152181300004</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1087152181300005</v>
+        <v>0.1087152181300004</v>
       </c>
     </row>
     <row r="3">
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02180277083211741</v>
+        <v>0.02249433173081758</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02180277083211741</v>
+        <v>0.02131799511783486</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02180277083211741</v>
+        <v>0.0222990410571723</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01257974491403421</v>
+        <v>0.0228165364663289</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01257974491403421</v>
+        <v>0.02178502945052628</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01257974491403421</v>
+        <v>0.02284553545631869</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04409616556131091</v>
+        <v>0.01674105237858478</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04409616556131091</v>
+        <v>0.0181454539629752</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04409616556131091</v>
+        <v>0.01840740124775413</v>
       </c>
     </row>
   </sheetData>
